--- a/images/work.xlsx
+++ b/images/work.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
@@ -2825,7 +2825,7 @@
               </a:ext>
             </a:extLst>
           </a:blip>
-          <a:srcRect l="25005" t="27043" r="25097" b="25330"/>
+          <a:srcRect/>
           <a:stretch/>
         </xdr:blipFill>
         <xdr:spPr>
